--- a/Code/Results/Cases/Case_2_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_116/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.10824501231588</v>
+        <v>16.2005927474062</v>
       </c>
       <c r="C2">
-        <v>20.13878571047738</v>
+        <v>12.83023013918517</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.899292546077898</v>
+        <v>16.07902887608318</v>
       </c>
       <c r="F2">
-        <v>37.6811358084183</v>
+        <v>43.5165815734676</v>
       </c>
       <c r="G2">
-        <v>2.061894628299509</v>
+        <v>3.663456794202379</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.64547098269771</v>
+        <v>24.9964988682794</v>
       </c>
       <c r="J2">
-        <v>5.073488537007079</v>
+        <v>8.665293179902653</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.16220823748601</v>
+        <v>19.80173307187955</v>
       </c>
       <c r="N2">
-        <v>12.04581200858992</v>
+        <v>18.6529744591511</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.45411075028334</v>
+        <v>15.6759274972307</v>
       </c>
       <c r="C3">
-        <v>18.6751029969079</v>
+        <v>12.28764008112553</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.751533666098805</v>
+        <v>16.08517181177352</v>
       </c>
       <c r="F3">
-        <v>36.06744180135924</v>
+        <v>43.32905868479114</v>
       </c>
       <c r="G3">
-        <v>2.073127171178925</v>
+        <v>3.667355850194007</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.18748049534921</v>
+        <v>24.99908159120005</v>
       </c>
       <c r="J3">
-        <v>5.147204847400212</v>
+        <v>8.693256506517024</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.25482879029553</v>
+        <v>19.66557319454697</v>
       </c>
       <c r="N3">
-        <v>12.32828176409696</v>
+        <v>18.7266668312664</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.38702155634774</v>
+        <v>15.34962376500426</v>
       </c>
       <c r="C4">
-        <v>17.73381430667774</v>
+        <v>11.94617556115307</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.662161941121626</v>
+        <v>16.09038227704462</v>
       </c>
       <c r="F4">
-        <v>35.08122570348506</v>
+        <v>43.22584265150275</v>
       </c>
       <c r="G4">
-        <v>2.080167007551423</v>
+        <v>3.669872218079639</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.92726599357179</v>
+        <v>25.00773384570566</v>
       </c>
       <c r="J4">
-        <v>5.19462735102053</v>
+        <v>8.711439869489308</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.68395882913761</v>
+        <v>19.5860971666723</v>
       </c>
       <c r="N4">
-        <v>12.50449932705238</v>
+        <v>18.77390899403686</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.93903822018013</v>
+        <v>15.21583849444901</v>
       </c>
       <c r="C5">
-        <v>17.33934043766283</v>
+        <v>11.80517162510868</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.626106134583116</v>
+        <v>16.09286860904798</v>
       </c>
       <c r="F5">
-        <v>34.6808749474428</v>
+        <v>43.18680466177351</v>
       </c>
       <c r="G5">
-        <v>2.083074716040995</v>
+        <v>3.670928540761172</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.82634487690787</v>
+        <v>25.01302916232764</v>
       </c>
       <c r="J5">
-        <v>5.214481594222917</v>
+        <v>8.719104960014782</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.44810120844523</v>
+        <v>19.5547754989123</v>
       </c>
       <c r="N5">
-        <v>12.57705274692486</v>
+        <v>18.79366354076593</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.8638520239415</v>
+        <v>15.19358147493964</v>
       </c>
       <c r="C6">
-        <v>17.27317562778894</v>
+        <v>11.78165345450484</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.62014179355444</v>
+        <v>16.09330342442296</v>
       </c>
       <c r="F6">
-        <v>34.61450251034705</v>
+        <v>43.18050568265569</v>
       </c>
       <c r="G6">
-        <v>2.083559971282776</v>
+        <v>3.67110581110643</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.80989128071077</v>
+        <v>25.01401507543612</v>
       </c>
       <c r="J6">
-        <v>5.217809973220963</v>
+        <v>8.720393166346442</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.40875036061827</v>
+        <v>19.54963968643061</v>
       </c>
       <c r="N6">
-        <v>12.5891463479177</v>
+        <v>18.79697418787498</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.38103333568001</v>
+        <v>15.34782246772187</v>
       </c>
       <c r="C7">
-        <v>17.72853861820094</v>
+        <v>11.94428110940004</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.661674174117341</v>
+        <v>16.09041433703649</v>
       </c>
       <c r="F7">
-        <v>35.07581964138359</v>
+        <v>43.22530390039532</v>
       </c>
       <c r="G7">
-        <v>2.080206060611823</v>
+        <v>3.669886338817092</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.92588443001245</v>
+        <v>25.00779810665521</v>
       </c>
       <c r="J7">
-        <v>5.194892986400841</v>
+        <v>8.711542209808561</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.68079067733967</v>
+        <v>19.58567040242956</v>
       </c>
       <c r="N7">
-        <v>12.50547474065921</v>
+        <v>18.77417337244459</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.54845117564797</v>
+        <v>16.02068483839479</v>
       </c>
       <c r="C8">
-        <v>19.64282793473162</v>
+        <v>12.64500333961482</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.848078197302753</v>
+        <v>16.08084912685078</v>
       </c>
       <c r="F8">
-        <v>37.12398844242348</v>
+        <v>43.449465262028</v>
       </c>
       <c r="G8">
-        <v>2.06573978707626</v>
+        <v>3.664775871782211</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.48310402155211</v>
+        <v>24.99591859975867</v>
       </c>
       <c r="J8">
-        <v>5.098448267124564</v>
+        <v>8.674724708161554</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.85231566530179</v>
+        <v>19.75394585703321</v>
       </c>
       <c r="N8">
-        <v>12.14265774571597</v>
+        <v>18.67797041778694</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.40051351979231</v>
+        <v>17.29785528692536</v>
       </c>
       <c r="C9">
-        <v>23.06842398504376</v>
+        <v>13.94415644567042</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.223429171174729</v>
+        <v>16.07345148736337</v>
       </c>
       <c r="F9">
-        <v>41.16407964631145</v>
+        <v>43.98235186956529</v>
       </c>
       <c r="G9">
-        <v>2.038358175726139</v>
+        <v>3.655719383024926</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.74943502975482</v>
+        <v>25.02897543723794</v>
       </c>
       <c r="J9">
-        <v>4.927246132598769</v>
+        <v>8.610555797793303</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.09327255182579</v>
+        <v>20.11537472140938</v>
       </c>
       <c r="N9">
-        <v>11.45115731916657</v>
+        <v>18.50507929380897</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.00325595024113</v>
+        <v>18.19914009365573</v>
       </c>
       <c r="C10">
-        <v>25.40033182161333</v>
+        <v>14.84264268269057</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.504210404250522</v>
+        <v>16.07486654948321</v>
       </c>
       <c r="F10">
-        <v>44.13626293231058</v>
+        <v>44.42872013695941</v>
       </c>
       <c r="G10">
-        <v>2.018610383191773</v>
+        <v>3.649646202862412</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.79581173808896</v>
+        <v>25.08792932843413</v>
       </c>
       <c r="J10">
-        <v>4.813768707998772</v>
+        <v>8.568287298162907</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.94252145752916</v>
+        <v>20.39823440288206</v>
       </c>
       <c r="N10">
-        <v>10.95233900112728</v>
+        <v>18.38757246192473</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.14185486070733</v>
+        <v>18.59908401615674</v>
       </c>
       <c r="C11">
-        <v>26.42503384595764</v>
+        <v>15.23750669517003</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.632924562130167</v>
+        <v>16.0769809517887</v>
       </c>
       <c r="F11">
-        <v>45.48911859694687</v>
+        <v>44.64318143809269</v>
       </c>
       <c r="G11">
-        <v>2.009646654141412</v>
+        <v>3.647007776077434</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.29954555130734</v>
+        <v>25.12231725572682</v>
       </c>
       <c r="J11">
-        <v>4.765227465393107</v>
+        <v>8.550113341103181</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.74927638861713</v>
+        <v>20.53025445074302</v>
       </c>
       <c r="N11">
-        <v>10.72677196435716</v>
+        <v>18.33616215523557</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.56685552677677</v>
+        <v>18.74894050459899</v>
       </c>
       <c r="C12">
-        <v>26.80825837211816</v>
+        <v>15.38492136343399</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.681806182566687</v>
+        <v>16.07799158252791</v>
       </c>
       <c r="F12">
-        <v>46.00166220720885</v>
+        <v>44.72598348746543</v>
       </c>
       <c r="G12">
-        <v>2.006249315793248</v>
+        <v>3.646026418196503</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.49453225902887</v>
+        <v>25.13642859850132</v>
       </c>
       <c r="J12">
-        <v>4.747333503523874</v>
+        <v>8.543382689476733</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.0500454406146</v>
+        <v>20.58069126371143</v>
       </c>
       <c r="N12">
-        <v>10.64149855213467</v>
+        <v>18.31698693335132</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.47559174002729</v>
+        <v>18.71673928424295</v>
       </c>
       <c r="C13">
-        <v>26.72593127803265</v>
+        <v>15.35326859931313</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.671272340729777</v>
+        <v>16.07776461231094</v>
       </c>
       <c r="F13">
-        <v>45.8912623558456</v>
+        <v>44.7080806900011</v>
       </c>
       <c r="G13">
-        <v>2.006981226532967</v>
+        <v>3.646236983268951</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.4523456794207</v>
+        <v>25.13334101793037</v>
       </c>
       <c r="J13">
-        <v>4.751164790942185</v>
+        <v>8.544825523156424</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.98547599181655</v>
+        <v>20.56980966381151</v>
       </c>
       <c r="N13">
-        <v>10.65985806938709</v>
+        <v>18.32110365939988</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.17694114907757</v>
+        <v>18.61144552619176</v>
       </c>
       <c r="C14">
-        <v>26.45665593370186</v>
+        <v>15.24967752789509</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.636943247642476</v>
+        <v>16.0770598981599</v>
       </c>
       <c r="F14">
-        <v>45.53127972294935</v>
+        <v>44.64996204026057</v>
       </c>
       <c r="G14">
-        <v>2.009367248683251</v>
+        <v>3.64692668396001</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.31550080481346</v>
+        <v>25.12345637126203</v>
       </c>
       <c r="J14">
-        <v>4.763745257462731</v>
+        <v>8.549556572294978</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.7741142760718</v>
+        <v>20.53439524242983</v>
       </c>
       <c r="N14">
-        <v>10.71975386063769</v>
+        <v>18.33457873793808</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.99321824300264</v>
+        <v>18.54673841912383</v>
       </c>
       <c r="C15">
-        <v>26.29110314178402</v>
+        <v>15.18594677569352</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.615934066311073</v>
+        <v>16.07665553618056</v>
       </c>
       <c r="F15">
-        <v>45.31081813240645</v>
+        <v>44.61456824199732</v>
       </c>
       <c r="G15">
-        <v>2.010828183655607</v>
+        <v>3.647351454602257</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.23223878404287</v>
+        <v>25.11754361278548</v>
       </c>
       <c r="J15">
-        <v>4.771516136390757</v>
+        <v>8.552474192850672</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.64404010146947</v>
+        <v>20.51275954492225</v>
       </c>
       <c r="N15">
-        <v>10.756459071559</v>
+        <v>18.34287070146789</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.92796253968369</v>
+        <v>18.17278748708045</v>
       </c>
       <c r="C16">
-        <v>25.33267032850668</v>
+        <v>14.81654792365173</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.495818164381774</v>
+        <v>16.07475783254481</v>
       </c>
       <c r="F16">
-        <v>44.04787511275175</v>
+        <v>44.41492991072919</v>
       </c>
       <c r="G16">
-        <v>2.019196102116704</v>
+        <v>3.649821121420676</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.76346960734028</v>
+        <v>25.08583442172866</v>
       </c>
       <c r="J16">
-        <v>4.817006578627319</v>
+        <v>8.569496208019833</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.88912311060813</v>
+        <v>20.38967072462428</v>
       </c>
       <c r="N16">
-        <v>10.96710314010192</v>
+        <v>18.39097327671377</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.26308097821183</v>
+        <v>17.94069507470924</v>
       </c>
       <c r="C17">
-        <v>24.73571418104238</v>
+        <v>14.5862933495347</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.422379923164376</v>
+        <v>16.07396925685075</v>
       </c>
       <c r="F17">
-        <v>43.27335940996366</v>
+        <v>44.29534515300284</v>
       </c>
       <c r="G17">
-        <v>2.02433070375983</v>
+        <v>3.651367933768582</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.48315932533409</v>
+        <v>25.06832165815028</v>
       </c>
       <c r="J17">
-        <v>4.84573131275461</v>
+        <v>8.580208548465103</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.41732855659021</v>
+        <v>20.31499025893534</v>
       </c>
       <c r="N17">
-        <v>11.09663548922244</v>
+        <v>18.42100534217198</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.87636080609409</v>
+        <v>17.80626299122799</v>
       </c>
       <c r="C18">
-        <v>24.38893762653473</v>
+        <v>14.45255814011229</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.38023258033342</v>
+        <v>16.07365421124814</v>
       </c>
       <c r="F18">
-        <v>42.82793798930679</v>
+        <v>44.22763997649941</v>
       </c>
       <c r="G18">
-        <v>2.027286229960275</v>
+        <v>3.652269325320054</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.324525597353</v>
+        <v>25.05896129001626</v>
       </c>
       <c r="J18">
-        <v>4.862539770044583</v>
+        <v>8.586469237868693</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.14270465631491</v>
+        <v>20.27235324306887</v>
       </c>
       <c r="N18">
-        <v>11.17126885000614</v>
+        <v>18.43847146662235</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.74467539709978</v>
+        <v>17.76059014876601</v>
       </c>
       <c r="C19">
-        <v>24.27092629481191</v>
+        <v>14.40705851613003</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.365978250767753</v>
+        <v>16.0735713793897</v>
       </c>
       <c r="F19">
-        <v>42.67713414703155</v>
+        <v>44.20490257867561</v>
       </c>
       <c r="G19">
-        <v>2.028287468643791</v>
+        <v>3.65257653507154</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.27125355368484</v>
+        <v>25.0559143549817</v>
       </c>
       <c r="J19">
-        <v>4.868278862805854</v>
+        <v>8.588606048481283</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.04915530338092</v>
+        <v>20.257972691903</v>
       </c>
       <c r="N19">
-        <v>11.19656227072631</v>
+        <v>18.44441829079314</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.3343010594896</v>
+        <v>17.96549997812941</v>
       </c>
       <c r="C20">
-        <v>24.79961286208012</v>
+        <v>14.61093968406609</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.430188022203183</v>
+        <v>16.07403887648107</v>
       </c>
       <c r="F20">
-        <v>43.35580120277039</v>
+        <v>44.3079640600773</v>
       </c>
       <c r="G20">
-        <v>2.023783924332312</v>
+        <v>3.651202062269138</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.5127287920012</v>
+        <v>25.07011216886327</v>
       </c>
       <c r="J20">
-        <v>4.842643544396092</v>
+        <v>8.579057932359406</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.46788774757295</v>
+        <v>20.32290756052422</v>
       </c>
       <c r="N20">
-        <v>11.08283348710124</v>
+        <v>18.41778846589377</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.26482614592505</v>
+        <v>18.64241720191192</v>
       </c>
       <c r="C21">
-        <v>26.5358757996463</v>
+        <v>15.28016290668491</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.647022694687866</v>
+        <v>16.07726120417306</v>
       </c>
       <c r="F21">
-        <v>45.63700698031567</v>
+        <v>44.66699015317507</v>
       </c>
       <c r="G21">
-        <v>2.008666546966995</v>
+        <v>3.646723621150424</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.35557837440088</v>
+        <v>25.12633016567087</v>
       </c>
       <c r="J21">
-        <v>4.760036434356752</v>
+        <v>8.54816283987304</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.83632281298641</v>
+        <v>20.54478557666548</v>
       </c>
       <c r="N21">
-        <v>10.70215749232919</v>
+        <v>18.330612845156</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.49082470394341</v>
+        <v>19.07547574672768</v>
       </c>
       <c r="C22">
-        <v>27.64281789558373</v>
+        <v>15.70518697687081</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.789560475979998</v>
+        <v>16.08059020159242</v>
       </c>
       <c r="F22">
-        <v>47.12949701524126</v>
+        <v>44.91087799684522</v>
       </c>
       <c r="G22">
-        <v>1.998765851965756</v>
+        <v>3.64390014918368</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.93125610141083</v>
+        <v>25.16942108268419</v>
       </c>
       <c r="J22">
-        <v>4.70891770634173</v>
+        <v>8.528853706343567</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.70322023772913</v>
+        <v>20.69236402329953</v>
       </c>
       <c r="N22">
-        <v>10.45418204196627</v>
+        <v>18.27534434015347</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.83961987559607</v>
+        <v>18.84524407002672</v>
       </c>
       <c r="C23">
-        <v>27.05442548278703</v>
+        <v>15.47950854415765</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.713408208640518</v>
+        <v>16.07870206450232</v>
       </c>
       <c r="F23">
-        <v>46.33270459828475</v>
+        <v>44.7798820195999</v>
       </c>
       <c r="G23">
-        <v>2.004054061976016</v>
+        <v>3.645397662078333</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.62164054335308</v>
+        <v>25.14584175018079</v>
       </c>
       <c r="J23">
-        <v>4.73592081691053</v>
+        <v>8.539078645652623</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.24297090153785</v>
+        <v>20.61337616014886</v>
       </c>
       <c r="N23">
-        <v>10.58647195883705</v>
+        <v>18.30468649135007</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.30211641368822</v>
+        <v>17.95428878177488</v>
       </c>
       <c r="C24">
-        <v>24.77073544281263</v>
+        <v>14.5998012993748</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.426657752129557</v>
+        <v>16.07400697050372</v>
       </c>
       <c r="F24">
-        <v>43.31852971897368</v>
+        <v>44.30225579133597</v>
       </c>
       <c r="G24">
-        <v>2.02403111174902</v>
+        <v>3.651277015049793</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.49935260362492</v>
+        <v>25.0693004739385</v>
       </c>
       <c r="J24">
-        <v>4.844038611281251</v>
+        <v>8.579577808112242</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.44504049113543</v>
+        <v>20.31932721813216</v>
       </c>
       <c r="N24">
-        <v>11.08907285923162</v>
+        <v>18.41924219170978</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.39956874161568</v>
+        <v>16.95810742033207</v>
       </c>
       <c r="C25">
-        <v>22.17539878164342</v>
+        <v>13.60188162670681</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.120951145692317</v>
+        <v>16.07424417767032</v>
       </c>
       <c r="F25">
-        <v>40.0700360405764</v>
+        <v>43.82839566963497</v>
       </c>
       <c r="G25">
-        <v>2.045682320051001</v>
+        <v>3.658066881993338</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.38725901618922</v>
+        <v>25.01396242516192</v>
       </c>
       <c r="J25">
-        <v>4.971517547412729</v>
+        <v>8.627057526331578</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.45661238712939</v>
+        <v>20.01441808097795</v>
       </c>
       <c r="N25">
-        <v>11.63638861865261</v>
+        <v>18.55017311316885</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_116/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.2005927474062</v>
+        <v>23.10824501231594</v>
       </c>
       <c r="C2">
-        <v>12.83023013918517</v>
+        <v>20.13878571047729</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.07902887608318</v>
+        <v>8.899292546077914</v>
       </c>
       <c r="F2">
-        <v>43.5165815734676</v>
+        <v>37.68113580841831</v>
       </c>
       <c r="G2">
-        <v>3.663456794202379</v>
+        <v>2.061894628299643</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.9964988682794</v>
+        <v>19.64547098269774</v>
       </c>
       <c r="J2">
-        <v>8.665293179902653</v>
+        <v>5.073488537007082</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.80173307187955</v>
+        <v>17.16220823748601</v>
       </c>
       <c r="N2">
-        <v>18.6529744591511</v>
+        <v>12.04581200858987</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.6759274972307</v>
+        <v>21.4541107502833</v>
       </c>
       <c r="C3">
-        <v>12.28764008112553</v>
+        <v>18.67510299690799</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.08517181177352</v>
+        <v>8.751533666098801</v>
       </c>
       <c r="F3">
-        <v>43.32905868479114</v>
+        <v>36.06744180135925</v>
       </c>
       <c r="G3">
-        <v>3.667355850194007</v>
+        <v>2.073127171178929</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.99908159120005</v>
+        <v>19.18748049534927</v>
       </c>
       <c r="J3">
-        <v>8.693256506517024</v>
+        <v>5.147204847400215</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.66557319454697</v>
+        <v>16.25482879029553</v>
       </c>
       <c r="N3">
-        <v>18.7266668312664</v>
+        <v>12.32828176409696</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.34962376500426</v>
+        <v>20.38702155634777</v>
       </c>
       <c r="C4">
-        <v>11.94617556115307</v>
+        <v>17.73381430667773</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.09038227704462</v>
+        <v>8.662161941121751</v>
       </c>
       <c r="F4">
-        <v>43.22584265150275</v>
+        <v>35.08122570348519</v>
       </c>
       <c r="G4">
-        <v>3.669872218079639</v>
+        <v>2.080167007551427</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.00773384570566</v>
+        <v>18.92726599357184</v>
       </c>
       <c r="J4">
-        <v>8.711439869489308</v>
+        <v>5.1946273510205</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.5860971666723</v>
+        <v>15.68395882913762</v>
       </c>
       <c r="N4">
-        <v>18.77390899403686</v>
+        <v>12.50449932705241</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.21583849444901</v>
+        <v>19.9390382201801</v>
       </c>
       <c r="C5">
-        <v>11.80517162510868</v>
+        <v>17.33934043766273</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.09286860904798</v>
+        <v>8.626106134583093</v>
       </c>
       <c r="F5">
-        <v>43.18680466177351</v>
+        <v>34.68087494744285</v>
       </c>
       <c r="G5">
-        <v>3.670928540761172</v>
+        <v>2.083074716040866</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.01302916232764</v>
+        <v>18.82634487690793</v>
       </c>
       <c r="J5">
-        <v>8.719104960014782</v>
+        <v>5.214481594222983</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.5547754989123</v>
+        <v>15.44810120844524</v>
       </c>
       <c r="N5">
-        <v>18.79366354076593</v>
+        <v>12.57705274692487</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.19358147493964</v>
+        <v>19.86385202394153</v>
       </c>
       <c r="C6">
-        <v>11.78165345450484</v>
+        <v>17.27317562778895</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.09330342442296</v>
+        <v>8.62014179355436</v>
       </c>
       <c r="F6">
-        <v>43.18050568265569</v>
+        <v>34.61450251034705</v>
       </c>
       <c r="G6">
-        <v>3.67110581110643</v>
+        <v>2.083559971283174</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.01401507543612</v>
+        <v>18.80989128071083</v>
       </c>
       <c r="J6">
-        <v>8.720393166346442</v>
+        <v>5.217809973220904</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.54963968643061</v>
+        <v>15.40875036061823</v>
       </c>
       <c r="N6">
-        <v>18.79697418787498</v>
+        <v>12.5891463479177</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.34782246772187</v>
+        <v>20.38103333568001</v>
       </c>
       <c r="C7">
-        <v>11.94428110940004</v>
+        <v>17.72853861820107</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.09041433703649</v>
+        <v>8.661674174117444</v>
       </c>
       <c r="F7">
-        <v>43.22530390039532</v>
+        <v>35.07581964138365</v>
       </c>
       <c r="G7">
-        <v>3.669886338817092</v>
+        <v>2.080206060611826</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.00779810665521</v>
+        <v>18.92588443001248</v>
       </c>
       <c r="J7">
-        <v>8.711542209808561</v>
+        <v>5.194892986400782</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.58567040242956</v>
+        <v>15.68079067733968</v>
       </c>
       <c r="N7">
-        <v>18.77417337244459</v>
+        <v>12.50547474065921</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.02068483839479</v>
+        <v>22.54845117564798</v>
       </c>
       <c r="C8">
-        <v>12.64500333961482</v>
+        <v>19.6428279347316</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.08084912685078</v>
+        <v>8.848078197302902</v>
       </c>
       <c r="F8">
-        <v>43.449465262028</v>
+        <v>37.12398844242357</v>
       </c>
       <c r="G8">
-        <v>3.664775871782211</v>
+        <v>2.065739787076395</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.99591859975867</v>
+        <v>19.48310402155212</v>
       </c>
       <c r="J8">
-        <v>8.674724708161554</v>
+        <v>5.098448267124565</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75394585703321</v>
+        <v>16.85231566530181</v>
       </c>
       <c r="N8">
-        <v>18.67797041778694</v>
+        <v>12.14265774571598</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.29785528692536</v>
+        <v>26.40051351979248</v>
       </c>
       <c r="C9">
-        <v>13.94415644567042</v>
+        <v>23.06842398504387</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.07345148736337</v>
+        <v>9.223429171175029</v>
       </c>
       <c r="F9">
-        <v>43.98235186956529</v>
+        <v>41.16407964631149</v>
       </c>
       <c r="G9">
-        <v>3.655719383024926</v>
+        <v>2.038358175726274</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.02897543723794</v>
+        <v>20.74943502975475</v>
       </c>
       <c r="J9">
-        <v>8.610555797793303</v>
+        <v>4.92724613259874</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.11537472140938</v>
+        <v>19.09327255182582</v>
       </c>
       <c r="N9">
-        <v>18.50507929380897</v>
+        <v>11.45115731916651</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.19914009365573</v>
+        <v>29.00325595024111</v>
       </c>
       <c r="C10">
-        <v>14.84264268269057</v>
+        <v>25.40033182161336</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.07486654948321</v>
+        <v>9.504210404250562</v>
       </c>
       <c r="F10">
-        <v>44.42872013695941</v>
+        <v>44.13626293231058</v>
       </c>
       <c r="G10">
-        <v>3.649646202862412</v>
+        <v>2.01861038319177</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.08792932843413</v>
+        <v>21.79581173808898</v>
       </c>
       <c r="J10">
-        <v>8.568287298162907</v>
+        <v>4.813768707998762</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.39823440288206</v>
+        <v>20.94252145752912</v>
       </c>
       <c r="N10">
-        <v>18.38757246192473</v>
+        <v>10.95233900112728</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.59908401615674</v>
+        <v>30.14185486070722</v>
       </c>
       <c r="C11">
-        <v>15.23750669517003</v>
+        <v>26.4250338459576</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.0769809517887</v>
+        <v>9.632924562130073</v>
       </c>
       <c r="F11">
-        <v>44.64318143809269</v>
+        <v>45.48911859694684</v>
       </c>
       <c r="G11">
-        <v>3.647007776077434</v>
+        <v>2.009646654141679</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.12231725572682</v>
+        <v>22.29954555130738</v>
       </c>
       <c r="J11">
-        <v>8.550113341103181</v>
+        <v>4.765227465393132</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.53025445074302</v>
+        <v>21.74927638861709</v>
       </c>
       <c r="N11">
-        <v>18.33616215523557</v>
+        <v>10.72677196435725</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.74894050459899</v>
+        <v>30.56685552677684</v>
       </c>
       <c r="C12">
-        <v>15.38492136343399</v>
+        <v>26.80825837211814</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.07799158252791</v>
+        <v>9.681806182566715</v>
       </c>
       <c r="F12">
-        <v>44.72598348746543</v>
+        <v>46.00166220720885</v>
       </c>
       <c r="G12">
-        <v>3.646026418196503</v>
+        <v>2.006249315793246</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.13642859850132</v>
+        <v>22.49453225902883</v>
       </c>
       <c r="J12">
-        <v>8.543382689476733</v>
+        <v>4.747333503523863</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.58069126371143</v>
+        <v>22.05004544061461</v>
       </c>
       <c r="N12">
-        <v>18.31698693335132</v>
+        <v>10.64149855213466</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.71673928424295</v>
+        <v>30.47559174002734</v>
       </c>
       <c r="C13">
-        <v>15.35326859931313</v>
+        <v>26.72593127803275</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.07776461231094</v>
+        <v>9.671272340729734</v>
       </c>
       <c r="F13">
-        <v>44.7080806900011</v>
+        <v>45.89126235584565</v>
       </c>
       <c r="G13">
-        <v>3.646236983268951</v>
+        <v>2.006981226533098</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.13334101793037</v>
+        <v>22.45234567942072</v>
       </c>
       <c r="J13">
-        <v>8.544825523156424</v>
+        <v>4.751164790942164</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.56980966381151</v>
+        <v>21.98547599181659</v>
       </c>
       <c r="N13">
-        <v>18.32110365939988</v>
+        <v>10.65985806938703</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.61144552619176</v>
+        <v>30.17694114907755</v>
       </c>
       <c r="C14">
-        <v>15.24967752789509</v>
+        <v>26.4566559337019</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.0770598981599</v>
+        <v>9.636943247642368</v>
       </c>
       <c r="F14">
-        <v>44.64996204026057</v>
+        <v>45.53127972294934</v>
       </c>
       <c r="G14">
-        <v>3.64692668396001</v>
+        <v>2.009367248683384</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.12345637126203</v>
+        <v>22.31550080481347</v>
       </c>
       <c r="J14">
-        <v>8.549556572294978</v>
+        <v>4.763745257462761</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.53439524242983</v>
+        <v>21.77411427607181</v>
       </c>
       <c r="N14">
-        <v>18.33457873793808</v>
+        <v>10.71975386063769</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.54673841912383</v>
+        <v>29.99321824300258</v>
       </c>
       <c r="C15">
-        <v>15.18594677569352</v>
+        <v>26.291103141784</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.07665553618056</v>
+        <v>9.615934066311072</v>
       </c>
       <c r="F15">
-        <v>44.61456824199732</v>
+        <v>45.31081813240645</v>
       </c>
       <c r="G15">
-        <v>3.647351454602257</v>
+        <v>2.010828183655609</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.11754361278548</v>
+        <v>22.23223878404289</v>
       </c>
       <c r="J15">
-        <v>8.552474192850672</v>
+        <v>4.771516136390758</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.51275954492225</v>
+        <v>21.64404010146943</v>
       </c>
       <c r="N15">
-        <v>18.34287070146789</v>
+        <v>10.75645907155903</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.17278748708045</v>
+        <v>28.92796253968371</v>
       </c>
       <c r="C16">
-        <v>14.81654792365173</v>
+        <v>25.33267032850673</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.07475783254481</v>
+        <v>9.4958181643819</v>
       </c>
       <c r="F16">
-        <v>44.41492991072919</v>
+        <v>44.04787511275175</v>
       </c>
       <c r="G16">
-        <v>3.649821121420676</v>
+        <v>2.019196102116704</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.08583442172866</v>
+        <v>21.76346960734029</v>
       </c>
       <c r="J16">
-        <v>8.569496208019833</v>
+        <v>4.81700657862729</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.38967072462428</v>
+        <v>20.88912311060811</v>
       </c>
       <c r="N16">
-        <v>18.39097327671377</v>
+        <v>10.96710314010189</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.94069507470924</v>
+        <v>28.26308097821184</v>
       </c>
       <c r="C17">
-        <v>14.5862933495347</v>
+        <v>24.7357141810426</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.07396925685075</v>
+        <v>9.422379923164579</v>
       </c>
       <c r="F17">
-        <v>44.29534515300284</v>
+        <v>43.27335940996371</v>
       </c>
       <c r="G17">
-        <v>3.651367933768582</v>
+        <v>2.02433070375996</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.06832165815028</v>
+        <v>21.48315932533409</v>
       </c>
       <c r="J17">
-        <v>8.580208548465103</v>
+        <v>4.845731312754589</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.31499025893534</v>
+        <v>20.41732855659022</v>
       </c>
       <c r="N17">
-        <v>18.42100534217198</v>
+        <v>11.09663548922242</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.80626299122799</v>
+        <v>27.87636080609411</v>
       </c>
       <c r="C18">
-        <v>14.45255814011229</v>
+        <v>24.38893762653468</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.07365421124814</v>
+        <v>9.380232580333605</v>
       </c>
       <c r="F18">
-        <v>44.22763997649941</v>
+        <v>42.82793798930683</v>
       </c>
       <c r="G18">
-        <v>3.652269325320054</v>
+        <v>2.027286229960406</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.05896129001626</v>
+        <v>21.32452559735297</v>
       </c>
       <c r="J18">
-        <v>8.586469237868693</v>
+        <v>4.862539770044589</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.27235324306887</v>
+        <v>20.14270465631488</v>
       </c>
       <c r="N18">
-        <v>18.43847146662235</v>
+        <v>11.17126885000608</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.76059014876601</v>
+        <v>27.74467539709981</v>
       </c>
       <c r="C19">
-        <v>14.40705851613003</v>
+        <v>24.27092629481184</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.0735713793897</v>
+        <v>9.365978250767872</v>
       </c>
       <c r="F19">
-        <v>44.20490257867561</v>
+        <v>42.67713414703162</v>
       </c>
       <c r="G19">
-        <v>3.65257653507154</v>
+        <v>2.028287468643793</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.0559143549817</v>
+        <v>21.27125355368489</v>
       </c>
       <c r="J19">
-        <v>8.588606048481283</v>
+        <v>4.868278862805839</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.257972691903</v>
+        <v>20.04915530338087</v>
       </c>
       <c r="N19">
-        <v>18.44441829079314</v>
+        <v>11.19656227072629</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.96549997812941</v>
+        <v>28.3343010594895</v>
       </c>
       <c r="C20">
-        <v>14.61093968406609</v>
+        <v>24.79961286208017</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.07403887648107</v>
+        <v>9.430188022203135</v>
       </c>
       <c r="F20">
-        <v>44.3079640600773</v>
+        <v>43.35580120277039</v>
       </c>
       <c r="G20">
-        <v>3.651202062269138</v>
+        <v>2.023783924332044</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.07011216886327</v>
+        <v>21.51272879200128</v>
       </c>
       <c r="J20">
-        <v>8.579057932359406</v>
+        <v>4.842643544396122</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.32290756052422</v>
+        <v>20.46788774757291</v>
       </c>
       <c r="N20">
-        <v>18.41778846589377</v>
+        <v>11.0828334871013</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.64241720191192</v>
+        <v>30.26482614592505</v>
       </c>
       <c r="C21">
-        <v>15.28016290668491</v>
+        <v>26.53587579964615</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.07726120417306</v>
+        <v>9.647022694687809</v>
       </c>
       <c r="F21">
-        <v>44.66699015317507</v>
+        <v>45.63700698031572</v>
       </c>
       <c r="G21">
-        <v>3.646723621150424</v>
+        <v>2.008666546967</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.12633016567087</v>
+        <v>22.35557837440094</v>
       </c>
       <c r="J21">
-        <v>8.54816283987304</v>
+        <v>4.760036434356723</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.54478557666548</v>
+        <v>21.83632281298641</v>
       </c>
       <c r="N21">
-        <v>18.330612845156</v>
+        <v>10.70215749232929</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.07547574672768</v>
+        <v>31.49082470394352</v>
       </c>
       <c r="C22">
-        <v>15.70518697687081</v>
+        <v>27.64281789558367</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.08059020159242</v>
+        <v>9.789560475980156</v>
       </c>
       <c r="F22">
-        <v>44.91087799684522</v>
+        <v>47.12949701524131</v>
       </c>
       <c r="G22">
-        <v>3.64390014918368</v>
+        <v>1.998765851965898</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.16942108268419</v>
+        <v>22.93125610141084</v>
       </c>
       <c r="J22">
-        <v>8.528853706343567</v>
+        <v>4.70891770634174</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.69236402329953</v>
+        <v>22.70322023772913</v>
       </c>
       <c r="N22">
-        <v>18.27534434015347</v>
+        <v>10.45418204196621</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.84524407002672</v>
+        <v>30.83961987559603</v>
       </c>
       <c r="C23">
-        <v>15.47950854415765</v>
+        <v>27.05442548278694</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.07870206450232</v>
+        <v>9.713408208640596</v>
       </c>
       <c r="F23">
-        <v>44.7798820195999</v>
+        <v>46.33270459828471</v>
       </c>
       <c r="G23">
-        <v>3.645397662078333</v>
+        <v>2.004054061975753</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.14584175018079</v>
+        <v>22.62164054335309</v>
       </c>
       <c r="J23">
-        <v>8.539078645652623</v>
+        <v>4.735920816910513</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.61337616014886</v>
+        <v>22.24297090153781</v>
       </c>
       <c r="N23">
-        <v>18.30468649135007</v>
+        <v>10.58647195883708</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.95428878177488</v>
+        <v>28.3021164136883</v>
       </c>
       <c r="C24">
-        <v>14.5998012993748</v>
+        <v>24.77073544281262</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.07400697050372</v>
+        <v>9.426657752129653</v>
       </c>
       <c r="F24">
-        <v>44.30225579133597</v>
+        <v>43.31852971897366</v>
       </c>
       <c r="G24">
-        <v>3.651277015049793</v>
+        <v>2.024031111749016</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.0693004739385</v>
+        <v>21.4993526036249</v>
       </c>
       <c r="J24">
-        <v>8.579577808112242</v>
+        <v>4.844038611281226</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.31932721813216</v>
+        <v>20.44504049113541</v>
       </c>
       <c r="N24">
-        <v>18.41924219170978</v>
+        <v>11.08907285923155</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.95810742033207</v>
+        <v>25.39956874161572</v>
       </c>
       <c r="C25">
-        <v>13.60188162670681</v>
+        <v>22.17539878164362</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.07424417767032</v>
+        <v>9.120951145692443</v>
       </c>
       <c r="F25">
-        <v>43.82839566963497</v>
+        <v>40.07003604057633</v>
       </c>
       <c r="G25">
-        <v>3.658066881993338</v>
+        <v>2.045682320051271</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.01396242516192</v>
+        <v>20.38725901618913</v>
       </c>
       <c r="J25">
-        <v>8.627057526331578</v>
+        <v>4.971517547412756</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.01441808097795</v>
+        <v>18.45661238712938</v>
       </c>
       <c r="N25">
-        <v>18.55017311316885</v>
+        <v>11.63638861865251</v>
       </c>
       <c r="O25">
         <v>0</v>
